--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,88 @@
         <v>70</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.835115740738</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>55</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42600.88013888889</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>57</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>62</v>
+      </c>
+      <c r="M4">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42602.583043981482</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>95</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>84</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,47 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42604.890833333331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,45 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>totalScore</t>
+  </si>
+  <si>
+    <t>posWordPercentage</t>
+  </si>
+  <si>
+    <t>negWordPercentage</t>
+  </si>
+  <si>
+    <t>posPhrasePercentage</t>
+  </si>
+  <si>
+    <t>negPhrasePercentage</t>
+  </si>
+  <si>
+    <t>ElapsedMs</t>
+  </si>
+  <si>
+    <t>wordCount</t>
+  </si>
+  <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
+    <t>posWordCount</t>
+  </si>
+  <si>
+    <t>negWordCount</t>
+  </si>
+  <si>
+    <t>positivePhraseCount</t>
+  </si>
+  <si>
+    <t>negativePhraseCount</t>
+  </si>
+  <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>ElapsedMs</t>
-  </si>
-  <si>
-    <t>wordCount</t>
-  </si>
-  <si>
-    <t>sentenceCount</t>
-  </si>
-  <si>
-    <t>posWordCount</t>
-  </si>
-  <si>
-    <t>negWordCount</t>
-  </si>
-  <si>
-    <t>posWordPercentage</t>
-  </si>
-  <si>
-    <t>negWordPercentage</t>
-  </si>
-  <si>
-    <t>positivePhraseCount</t>
-  </si>
-  <si>
-    <t>negativePhraseCount</t>
-  </si>
-  <si>
-    <t>posPhrasePercentage</t>
-  </si>
-  <si>
-    <t>negPhrasePercentage</t>
   </si>
   <si>
     <t>Random</t>
@@ -384,28 +387,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,13 +448,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42587.798368055555</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>42605.536377314813</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -469,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -481,174 +487,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42600.835115740738</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>55</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>44</v>
-      </c>
-      <c r="M3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42600.88013888889</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>57</v>
-      </c>
-      <c r="I4">
-        <v>43</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>62</v>
-      </c>
-      <c r="M4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42602.583043981482</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>95</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>84</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42604.890833333331</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>65</v>
-      </c>
-      <c r="I6">
-        <v>35</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>27</v>
-      </c>
-      <c r="M6">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42605.648344907408</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42605.886712962965</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42606.88177083333</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42607.889224537037</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42608.892025462963</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,6 +716,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42611.885752314818</v>
+      </c>
+      <c r="B8">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,6 +760,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42612.892604166664</v>
+      </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,6 +804,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42613.759398148148</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42613.888055555559</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42614.886203703703</v>
+      </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42615.885671296295</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -980,6 +980,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42619.89267361111</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,6 +1024,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42620.888136574074</v>
+      </c>
+      <c r="B15">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,6 +1068,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42621.889652777776</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,6 +1112,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42622.888506944444</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,6 +1156,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42625.885057870371</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +432,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -584,6 +587,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42632.882164351853</v>
+      </c>
+      <c r="B3">
+        <v>-7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.77</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.1132</v>
+      </c>
+      <c r="T3">
+        <v>-4.05</v>
+      </c>
+      <c r="U3">
+        <v>5.85</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +448,7 @@
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42629.500949074078</v>
       </c>
@@ -587,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42632.882164351853</v>
       </c>
@@ -655,6 +658,83 @@
         <v>25</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>-1.3299870000000169</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.888368055559</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.76</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.1055</v>
+      </c>
+      <c r="T4">
+        <v>-6.67</v>
+      </c>
+      <c r="U4">
+        <v>5.83</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +743,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>0.9899899999999775</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42634.893125000002</v>
+      </c>
+      <c r="B5">
+        <v>-15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.78</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.1172</v>
+      </c>
+      <c r="T5">
+        <v>-3.27</v>
+      </c>
+      <c r="U5">
+        <v>5.9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,6 +820,83 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42635.891944444447</v>
+      </c>
+      <c r="B6">
+        <v>-14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>55.20638752455779</v>
+      </c>
+      <c r="R6">
+        <v>1.78</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.1341</v>
+      </c>
+      <c r="T6" s="2">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -427,25 +433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -594,6 +600,83 @@
       </c>
       <c r="W2">
         <v>2</v>
+      </c>
+      <c r="X2">
+        <v>-1.8800050000000397</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42640.883576388886</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>54.986430949289058</v>
+      </c>
+      <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="U3">
+        <v>5.95</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -439,19 +439,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
 </sst>
 </file>
@@ -433,25 +439,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -677,6 +683,83 @@
       </c>
       <c r="W3">
         <v>0</v>
+      </c>
+      <c r="X3">
+        <v>4.75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42641.891504629632</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>57.519894101767122</v>
+      </c>
+      <c r="R4">
+        <v>1.83</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="U4">
+        <v>6.04</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -445,19 +445,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>Strong Sell</t>
   </si>
 </sst>
 </file>
@@ -439,25 +442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -760,6 +763,83 @@
       </c>
       <c r="W4">
         <v>2</v>
+      </c>
+      <c r="X4">
+        <v>-5.4400019999999927</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42642.883726851855</v>
+      </c>
+      <c r="B5">
+        <v>-16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>55.174763163562879</v>
+      </c>
+      <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="T5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U5">
+        <v>5.97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\BIIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\BIIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -101,22 +101,13 @@
     <t>UpDown</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
     <t>Random</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Neutral</t>
-  </si>
-  <si>
     <t>Down</t>
-  </si>
-  <si>
-    <t>Up</t>
   </si>
   <si>
     <t>Buy</t>
@@ -442,9 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -542,90 +535,90 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42639.882708333331</v>
+        <v>42641.891504629632</v>
       </c>
       <c r="B2">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
       <c r="Q2">
-        <v>57.931464516756321</v>
+        <v>57.519894101767122</v>
       </c>
       <c r="R2">
         <v>1.83</v>
       </c>
       <c r="S2" s="2">
-        <v>0.13370000000000001</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="T2" s="2">
-        <v>9.7999999999999997E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="U2">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2">
         <v>2</v>
       </c>
       <c r="X2">
-        <v>-1.8800050000000397</v>
+        <v>-5.4400019999999927</v>
       </c>
       <c r="Y2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42640.883576388886</v>
+        <v>42642.883726851855</v>
       </c>
       <c r="B3">
-        <v>-4</v>
+        <v>-16</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -664,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3">
-        <v>54.986430949289058</v>
+        <v>55.174763163562879</v>
       </c>
       <c r="R3">
         <v>1.8</v>
@@ -676,169 +669,15 @@
         <v>0.121</v>
       </c>
       <c r="T3" s="2">
-        <v>1.4E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U3">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>4.75</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42641.891504629632</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4">
-        <v>57.519894101767122</v>
-      </c>
-      <c r="R4">
-        <v>1.83</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="U4">
-        <v>6.04</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>-5.4400019999999927</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42642.883726851855</v>
-      </c>
-      <c r="B5">
-        <v>-16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5">
-        <v>55.174763163562879</v>
-      </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.121</v>
-      </c>
-      <c r="T5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U5">
-        <v>5.97</v>
-      </c>
-      <c r="V5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\BIIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\BIIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -441,19 +441,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -441,19 +441,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -678,6 +678,83 @@
         <v>26</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>-4.3900140000000079</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42643.884467592594</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <v>60.799802320463478</v>
+      </c>
+      <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="U4">
+        <v>5.88</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Strong Sell</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -757,6 +763,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>6.4400029999999902</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42646.880578703705</v>
+      </c>
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>58.678131452637096</v>
+      </c>
+      <c r="R5">
+        <v>1.82</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="U5">
+        <v>6.01</v>
+      </c>
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -840,6 +840,83 @@
       <c r="W5">
         <v>2</v>
       </c>
+      <c r="X5">
+        <v>-1.4100040000000149</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42647.885428240741</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>60.94594728999143</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="T6" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U6">
+        <v>5.99</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -917,6 +917,83 @@
       <c r="W6">
         <v>0</v>
       </c>
+      <c r="X6">
+        <v>-0.45999100000000226</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42648.888831018521</v>
+      </c>
+      <c r="B7">
+        <v>-18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>58.594837935340642</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.1167</v>
+      </c>
+      <c r="T7" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="U7">
+        <v>5.99</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -994,6 +994,83 @@
       <c r="W7">
         <v>0</v>
       </c>
+      <c r="X7">
+        <v>-3.5699769999999944</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42649.890949074077</v>
+      </c>
+      <c r="B8">
+        <v>-16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <v>49.72799223503381</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.1095</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="U8">
+        <v>5.95</v>
+      </c>
+      <c r="V8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -1071,6 +1071,83 @@
       <c r="W8">
         <v>0</v>
       </c>
+      <c r="X8">
+        <v>-2.3099980000000073</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42650.880231481482</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>44.868737868258705</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9" s="2">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="U9">
+        <v>5.88</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -447,19 +447,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>Sell</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -447,19 +450,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1146,6 +1149,83 @@
         <v>26</v>
       </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>-1.7200020000000222</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42653.880208333336</v>
+      </c>
+      <c r="B10">
+        <v>-8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>44.409433632991338</v>
+      </c>
+      <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10" s="2">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="U10">
+        <v>5.87</v>
+      </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/BIIB/BIIBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -442,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -1228,6 +1228,83 @@
       <c r="W10">
         <v>0</v>
       </c>
+      <c r="X10">
+        <v>-3.4100040000000149</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42654.886678240742</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>39.313912976930268</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11" s="2">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="U11">
+        <v>5.85</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
